--- a/typescript/25_wordreplace/wordreplace/th.xlsx
+++ b/typescript/25_wordreplace/wordreplace/th.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zdhsoft\github\my_testlist\typescript\25_wordreplace\wordreplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AB03AE-AE02-4B1C-9D69-05CE03B7B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D351F-3B9B-4F1A-BC66-D3D5E6662416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18562098-5C29-496C-B4F9-E223C19F8930}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temploate/a.docx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>out/aa.docx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,11 +74,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temploate/b.docx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>out/ab.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX有限公司aaaaaaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBB有限公司bbbbbbbbbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./template/a.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./template/b.docx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,14 +458,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -476,58 +484,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
